--- a/pabi_budget_xls/template/Sample_BudgetPlanning_SectionBase_20Jan2017.xlsx
+++ b/pabi_budget_xls/template/Sample_BudgetPlanning_SectionBase_20Jan2017.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Expense" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Revenue" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Activity Group" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="JorOder" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Job Oder" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="ChargeType" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -562,7 +562,7 @@
   </sheetPr>
   <dimension ref="A1:Y65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -585,6 +585,29 @@
       <c r="B1" s="3" t="n">
         <v>2017</v>
       </c>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -593,6 +616,29 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -601,6 +647,29 @@
       <c r="B3" s="3" t="n">
         <v>105002</v>
       </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -609,6 +678,29 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -617,6 +709,29 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -626,22 +741,91 @@
         <f aca="false">I60</f>
         <v>0</v>
       </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
       <c r="E6" s="4" t="str">
         <f aca="false">IF(COUNTIF((X6),"Error")&lt;&gt;0,"Check phasing total","")</f>
         <v/>
       </c>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
       <c r="X6" s="4" t="str">
         <f aca="false">IF(COUNTIF((Y10:Y60),"Error")&lt;&gt;0,"Error","")</f>
         <v/>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="Y6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+    </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
@@ -1357,8 +1541,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
